--- a/词汇/数据库导入/002.-form-形式，格式，形成.xlsx
+++ b/词汇/数据库导入/002.-form-形式，格式，形成.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488">
   <si>
     <t>Word</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">v. </t>
     </r>
     <r>
@@ -117,6 +123,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -173,6 +185,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -211,6 +229,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>n. [</t>
     </r>
     <r>
@@ -267,6 +291,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -305,6 +335,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>【</t>
     </r>
     <r>
@@ -352,6 +388,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -390,6 +432,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -428,6 +476,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -558,6 +612,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>n. [</t>
     </r>
     <r>
@@ -614,6 +674,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -670,6 +736,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -708,6 +780,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -746,6 +824,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -784,6 +868,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -822,6 +912,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -896,6 +992,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adv. </t>
     </r>
     <r>
@@ -934,6 +1036,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -990,6 +1098,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -1028,6 +1142,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -1066,6 +1186,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -1140,6 +1266,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -1178,6 +1310,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -1216,6 +1354,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adv. </t>
     </r>
     <r>
@@ -1254,6 +1398,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vt. </t>
     </r>
     <r>
@@ -1292,6 +1442,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -1330,6 +1486,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -1368,6 +1530,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -1403,6 +1571,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>n. [</t>
     </r>
     <r>
@@ -1474,6 +1648,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -1512,6 +1692,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -1550,6 +1736,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -1588,6 +1780,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -1623,6 +1821,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>n. [</t>
     </r>
     <r>
@@ -1676,6 +1880,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -1714,6 +1924,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -1749,6 +1965,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -1787,6 +2009,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -1822,6 +2050,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -1860,6 +2094,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -1898,6 +2138,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -1933,6 +2179,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -1971,6 +2223,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -2042,6 +2300,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -2077,6 +2341,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -2115,6 +2385,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -2153,6 +2429,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -2191,6 +2473,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -2226,6 +2514,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -2282,6 +2576,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -2338,6 +2638,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -2376,6 +2682,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -2411,6 +2723,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -2446,6 +2764,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -2487,6 +2811,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vt. </t>
     </r>
     <r>
@@ -2525,6 +2855,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -2563,6 +2899,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -2583,6 +2925,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -2621,6 +2969,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -2659,6 +3013,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -2715,6 +3075,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -2753,6 +3119,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -2791,6 +3163,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -2829,6 +3207,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -2867,6 +3251,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -2902,6 +3292,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">vt. </t>
     </r>
     <r>
@@ -2940,6 +3336,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">] vt. </t>
     </r>
     <r>
@@ -2978,6 +3380,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -3016,6 +3424,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -3073,6 +3487,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -3108,6 +3528,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -3143,6 +3569,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -3181,6 +3613,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>n. [</t>
     </r>
     <r>
@@ -3255,6 +3693,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -3290,6 +3734,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -3325,6 +3775,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -3360,6 +3816,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -3395,6 +3857,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -3430,6 +3898,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -3468,6 +3942,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -3503,6 +3983,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -3541,6 +4027,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -3579,6 +4071,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>n.[</t>
     </r>
     <r>
@@ -3650,6 +4148,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -3691,6 +4195,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vt. </t>
     </r>
     <r>
@@ -3784,6 +4294,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -3840,6 +4356,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -3896,6 +4418,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -3952,6 +4480,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -3990,6 +4524,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">vt. </t>
     </r>
     <r>
@@ -4046,6 +4586,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -4081,6 +4627,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -4119,6 +4671,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -4157,6 +4715,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -4192,6 +4756,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -4262,6 +4832,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>以绩效为导向；绩效导向；绩效型【词频</t>
     </r>
     <r>
@@ -4318,6 +4894,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -4357,6 +4939,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -4392,6 +4980,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -4430,6 +5024,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vt. </t>
     </r>
     <r>
@@ -4486,6 +5086,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -4524,6 +5130,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -4562,6 +5174,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -4597,6 +5215,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -4635,6 +5259,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -4673,6 +5303,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -4711,6 +5347,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -4746,6 +5388,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -4781,6 +5429,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -4819,6 +5473,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>vt</t>
     </r>
     <r>
@@ -4874,6 +5534,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -4912,6 +5578,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -4968,6 +5640,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">vt. </t>
     </r>
     <r>
@@ -5006,6 +5684,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -5044,6 +5728,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -5082,6 +5772,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -5120,6 +5816,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -5158,6 +5860,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -5196,6 +5904,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -5252,6 +5966,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -5293,6 +6013,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -5385,6 +6111,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vt. </t>
     </r>
     <r>
@@ -5423,6 +6155,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -5461,6 +6199,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -5496,6 +6240,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -5552,6 +6302,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -5590,6 +6346,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -5664,6 +6426,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adv. </t>
     </r>
     <r>
@@ -5705,6 +6473,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -5799,6 +6573,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -5855,6 +6635,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -5893,6 +6679,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adv. </t>
     </r>
     <r>
@@ -5931,6 +6723,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -5987,6 +6785,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -6028,6 +6832,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -6102,6 +6912,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -6137,6 +6953,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -6175,6 +6997,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -6249,6 +7077,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -6287,6 +7121,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vt. </t>
     </r>
     <r>
@@ -6325,6 +7165,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -6363,6 +7209,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -6398,6 +7250,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -6436,6 +7294,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -6474,6 +7338,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -6512,6 +7382,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -6550,6 +7426,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -6606,6 +7488,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -6644,6 +7532,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -6682,6 +7576,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">vt. </t>
     </r>
     <r>
@@ -6720,6 +7620,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -6758,6 +7664,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -6796,6 +7708,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -6834,6 +7752,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -6872,6 +7796,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -6946,6 +7876,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> n. </t>
     </r>
     <r>
@@ -6984,6 +7920,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -7022,6 +7964,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -7060,6 +8008,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>adj. [</t>
     </r>
     <r>
@@ -7119,6 +8073,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> vt. </t>
     </r>
     <r>
@@ -7237,6 +8197,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -7275,6 +8241,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">n. </t>
     </r>
     <r>
@@ -7313,6 +8285,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -7354,6 +8332,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adj. </t>
     </r>
     <r>
@@ -7392,6 +8376,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">adv. </t>
     </r>
     <r>
@@ -7426,20 +8416,26 @@
     <t>【formidable+ly副词后缀】</t>
   </si>
   <si>
-    <t>formaldehyde [fɔː'mældɪhaɪd]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> n. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>蚁醛，</t>
+    <t>cribriform ['krɪbrɪfɔːm]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有小孔的；</t>
     </r>
     <r>
       <rPr>
@@ -7457,7 +8453,25 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>有化</t>
+      <t>植</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解剖</t>
     </r>
     <r>
       <rPr>
@@ -7475,392 +8489,6 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>甲醛；福尔马林【词频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>21114</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>】</t>
-    </r>
-  </si>
-  <si>
-    <t>【合成词form+aldehyde】</t>
-  </si>
-  <si>
-    <t>coliform ['kɒlɪfɔːm]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">adj. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>像大肠菌的；筛状的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">n. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大肠菌（等于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>coliform bacillus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）【词频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>21359</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>】</t>
-    </r>
-  </si>
-  <si>
-    <t>【col-圆柱+i+form形成--形状】</t>
-  </si>
-  <si>
-    <t>total-coliform ['təʊt(ə)l-'kɒlɪfɔːm]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> n. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>总大肠菌类【词频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>58660</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>】</t>
-    </r>
-  </si>
-  <si>
-    <t>chloroform ['klɔːrəfɔːm]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">n. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>氯仿；三氯甲烷</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">vt. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用氯仿麻醉【词频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>29625</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>】</t>
-    </r>
-  </si>
-  <si>
-    <t>【chlor氯+o连字符+form】</t>
-  </si>
-  <si>
-    <t>formalin ['fɔrməlɪn]</t>
-  </si>
-  <si>
-    <r>
-      <t>n. [</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>药</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>福尔马林【词频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>46403</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>】</t>
-    </r>
-  </si>
-  <si>
-    <t>【form+alin名词后缀】</t>
-  </si>
-  <si>
-    <t>fecal-coliform['fiːkəl-'kɒlɪfɔːm]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> n. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>粪便大肠菌【词频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>48671</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>】</t>
-    </r>
-  </si>
-  <si>
-    <t>【合成词,fecal排泄物的】</t>
-  </si>
-  <si>
-    <t>formica-topped [fɔr'maɪkə-tɒpt]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">adj. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>福米加塑料贴面的【词频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>53613</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>】</t>
-    </r>
-  </si>
-  <si>
-    <t>cribriform ['krɪbrɪfɔːm]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">adj. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>有小孔的；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>植</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>][</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>解剖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>筛状的【词频</t>
     </r>
     <r>
@@ -7916,6 +8544,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> adj. </t>
     </r>
     <r>
@@ -7954,6 +8588,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> pref. </t>
     </r>
     <r>
@@ -7983,62 +8623,6 @@
       </rPr>
       <t>】</t>
     </r>
-  </si>
-  <si>
-    <t>formant ['fɔːm(ə)nt]</t>
-  </si>
-  <si>
-    <r>
-      <t>n. [</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电子</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>共振峰，话音素【词频</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>59953</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>】</t>
-    </r>
-  </si>
-  <si>
-    <t>【form形成--统一的格式--共振+ant名词后缀】</t>
   </si>
 </sst>
 </file>
@@ -8046,9 +8630,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -8090,14 +8674,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -8107,43 +8683,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8157,6 +8704,20 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -8179,14 +8740,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -8195,17 +8748,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8219,18 +8787,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8255,19 +8839,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8285,7 +8863,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8303,19 +8929,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8333,103 +8995,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8458,17 +9042,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8478,21 +9065,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8508,15 +9080,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8547,11 +9110,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8563,10 +9147,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8575,145 +9159,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -8737,9 +9318,6 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -8750,15 +9328,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -9108,10 +9677,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E178"/>
+  <dimension ref="A1:E170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="C177" sqref="C177"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="C171" sqref="C171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -9148,10 +9717,10 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9165,10 +9734,10 @@
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9182,10 +9751,10 @@
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9199,10 +9768,10 @@
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -9216,10 +9785,10 @@
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9233,10 +9802,10 @@
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -9250,10 +9819,10 @@
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -9267,10 +9836,10 @@
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -9284,15 +9853,15 @@
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B11" t="s">
@@ -9301,15 +9870,15 @@
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B12" t="s">
@@ -9318,15 +9887,15 @@
       <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B13" t="s">
@@ -9335,15 +9904,15 @@
       <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B14" t="s">
@@ -9352,15 +9921,15 @@
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B15" t="s">
@@ -9369,15 +9938,15 @@
       <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>49</v>
       </c>
       <c r="B16" t="s">
@@ -9386,15 +9955,15 @@
       <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B17" t="s">
@@ -9403,15 +9972,15 @@
       <c r="C17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B18" t="s">
@@ -9420,15 +9989,15 @@
       <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" ht="27" spans="1:5">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B19" t="s">
@@ -9437,15 +10006,15 @@
       <c r="C19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B20" t="s">
@@ -9454,15 +10023,15 @@
       <c r="C20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>64</v>
       </c>
       <c r="B21" t="s">
@@ -9471,15 +10040,15 @@
       <c r="C21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B22" t="s">
@@ -9488,15 +10057,15 @@
       <c r="C22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B23" t="s">
@@ -9505,15 +10074,15 @@
       <c r="C23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>73</v>
       </c>
       <c r="B24" t="s">
@@ -9522,15 +10091,15 @@
       <c r="C24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>76</v>
       </c>
       <c r="B25" t="s">
@@ -9539,15 +10108,15 @@
       <c r="C25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>79</v>
       </c>
       <c r="B26" t="s">
@@ -9556,15 +10125,15 @@
       <c r="C26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B27" t="s">
@@ -9573,15 +10142,15 @@
       <c r="C27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>85</v>
       </c>
       <c r="B28" t="s">
@@ -9590,15 +10159,15 @@
       <c r="C28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>88</v>
       </c>
       <c r="B29" t="s">
@@ -9607,15 +10176,15 @@
       <c r="C29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>90</v>
       </c>
       <c r="B30" t="s">
@@ -9624,15 +10193,15 @@
       <c r="C30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>92</v>
       </c>
       <c r="B31" t="s">
@@ -9641,15 +10210,15 @@
       <c r="C31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>95</v>
       </c>
       <c r="B32" t="s">
@@ -9658,15 +10227,15 @@
       <c r="C32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="33" ht="27" spans="1:5">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>98</v>
       </c>
       <c r="B33" t="s">
@@ -9675,15 +10244,15 @@
       <c r="C33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>101</v>
       </c>
       <c r="B34" t="s">
@@ -9692,15 +10261,15 @@
       <c r="C34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>103</v>
       </c>
       <c r="B35" t="s">
@@ -9709,15 +10278,15 @@
       <c r="C35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>105</v>
       </c>
       <c r="B36" t="s">
@@ -9726,15 +10295,15 @@
       <c r="C36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B37" t="s">
@@ -9743,15 +10312,15 @@
       <c r="C37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="8" t="s">
         <v>110</v>
       </c>
       <c r="B38" t="s">
@@ -9760,15 +10329,15 @@
       <c r="C38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="3" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="39" ht="27" spans="1:5">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="8" t="s">
         <v>113</v>
       </c>
       <c r="B39" t="s">
@@ -9777,15 +10346,15 @@
       <c r="C39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="8" t="s">
         <v>115</v>
       </c>
       <c r="B40" t="s">
@@ -9794,15 +10363,15 @@
       <c r="C40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B41" t="s">
@@ -9811,15 +10380,15 @@
       <c r="C41" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="5" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>121</v>
       </c>
       <c r="B42" t="s">
@@ -9828,15 +10397,15 @@
       <c r="C42" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>123</v>
       </c>
       <c r="B43" t="s">
@@ -9845,15 +10414,15 @@
       <c r="C43" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="8" t="s">
         <v>126</v>
       </c>
       <c r="B44" t="s">
@@ -9862,15 +10431,15 @@
       <c r="C44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="8" t="s">
         <v>128</v>
       </c>
       <c r="B45" t="s">
@@ -9879,15 +10448,15 @@
       <c r="C45" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="8" t="s">
         <v>130</v>
       </c>
       <c r="B46" t="s">
@@ -9896,15 +10465,15 @@
       <c r="C46" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="3" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B47" t="s">
@@ -9913,15 +10482,15 @@
       <c r="C47" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="8" t="s">
         <v>136</v>
       </c>
       <c r="B48" t="s">
@@ -9930,15 +10499,15 @@
       <c r="C48" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="8" t="s">
         <v>139</v>
       </c>
       <c r="B49" t="s">
@@ -9947,15 +10516,15 @@
       <c r="C49" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="50" ht="27" spans="1:5">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="8" t="s">
         <v>141</v>
       </c>
       <c r="B50" t="s">
@@ -9964,15 +10533,15 @@
       <c r="C50" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="8" t="s">
         <v>144</v>
       </c>
       <c r="B51" t="s">
@@ -9981,15 +10550,15 @@
       <c r="C51" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="8" t="s">
         <v>147</v>
       </c>
       <c r="B52" t="s">
@@ -9998,15 +10567,15 @@
       <c r="C52" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="3" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="8" t="s">
         <v>150</v>
       </c>
       <c r="B53" t="s">
@@ -10015,15 +10584,15 @@
       <c r="C53" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="8" t="s">
         <v>152</v>
       </c>
       <c r="B54" t="s">
@@ -10032,15 +10601,15 @@
       <c r="C54" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="8" t="s">
         <v>154</v>
       </c>
       <c r="B55" t="s">
@@ -10049,15 +10618,15 @@
       <c r="C55" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="5" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="8" t="s">
         <v>157</v>
       </c>
       <c r="B56" t="s">
@@ -10066,15 +10635,15 @@
       <c r="C56" t="s">
         <v>158</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="3" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="8" t="s">
         <v>161</v>
       </c>
       <c r="B57" t="s">
@@ -10083,15 +10652,15 @@
       <c r="C57" t="s">
         <v>158</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="5" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="8" t="s">
         <v>164</v>
       </c>
       <c r="B58" t="s">
@@ -10100,15 +10669,15 @@
       <c r="C58" t="s">
         <v>158</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="3" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="8" t="s">
         <v>167</v>
       </c>
       <c r="B59" t="s">
@@ -10117,15 +10686,15 @@
       <c r="C59" t="s">
         <v>158</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="3" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="8" t="s">
         <v>170</v>
       </c>
       <c r="B60" t="s">
@@ -10134,15 +10703,15 @@
       <c r="C60" t="s">
         <v>158</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="E60" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="8" t="s">
         <v>173</v>
       </c>
       <c r="B61" t="s">
@@ -10151,15 +10720,15 @@
       <c r="C61" t="s">
         <v>158</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="3" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="8" t="s">
         <v>176</v>
       </c>
       <c r="B62" t="s">
@@ -10168,15 +10737,15 @@
       <c r="C62" t="s">
         <v>158</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E62" s="3" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="8" t="s">
         <v>179</v>
       </c>
       <c r="B63" t="s">
@@ -10185,15 +10754,15 @@
       <c r="C63" t="s">
         <v>158</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E63" s="3" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="64" ht="25.5" spans="1:5">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="8" t="s">
         <v>182</v>
       </c>
       <c r="B64" t="s">
@@ -10202,15 +10771,15 @@
       <c r="C64" t="s">
         <v>158</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E64" s="3" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="8" t="s">
         <v>185</v>
       </c>
       <c r="B65" t="s">
@@ -10219,15 +10788,15 @@
       <c r="C65" t="s">
         <v>158</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="D65" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E65" s="3" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="8" t="s">
         <v>188</v>
       </c>
       <c r="B66" t="s">
@@ -10236,15 +10805,15 @@
       <c r="C66" t="s">
         <v>158</v>
       </c>
-      <c r="D66" s="11" t="s">
+      <c r="D66" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B67" t="s">
@@ -10253,15 +10822,15 @@
       <c r="C67" t="s">
         <v>158</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E67" s="3" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="8" t="s">
         <v>193</v>
       </c>
       <c r="B68" t="s">
@@ -10270,15 +10839,15 @@
       <c r="C68" t="s">
         <v>158</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D68" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E68" s="3" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="8" t="s">
         <v>196</v>
       </c>
       <c r="B69" t="s">
@@ -10287,15 +10856,15 @@
       <c r="C69" t="s">
         <v>158</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="3" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="70" ht="26.25" spans="1:5">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="8" t="s">
         <v>199</v>
       </c>
       <c r="B70" t="s">
@@ -10304,15 +10873,15 @@
       <c r="C70" t="s">
         <v>158</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D70" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="E70" s="12" t="s">
+      <c r="E70" s="10" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="8" t="s">
         <v>202</v>
       </c>
       <c r="B71" t="s">
@@ -10321,15 +10890,15 @@
       <c r="C71" t="s">
         <v>158</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D71" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="E71" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="8" t="s">
         <v>204</v>
       </c>
       <c r="B72" t="s">
@@ -10338,15 +10907,15 @@
       <c r="C72" t="s">
         <v>158</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D72" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="E72" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="8" t="s">
         <v>206</v>
       </c>
       <c r="B73" t="s">
@@ -10355,15 +10924,15 @@
       <c r="C73" t="s">
         <v>158</v>
       </c>
-      <c r="D73" s="11" t="s">
+      <c r="D73" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E73" s="3" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="8" t="s">
         <v>209</v>
       </c>
       <c r="B74" t="s">
@@ -10372,15 +10941,15 @@
       <c r="C74" t="s">
         <v>158</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E74" s="3" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="8" t="s">
         <v>212</v>
       </c>
       <c r="B75" t="s">
@@ -10389,15 +10958,15 @@
       <c r="C75" t="s">
         <v>158</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="D75" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="E75" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="8" t="s">
         <v>214</v>
       </c>
       <c r="B76" t="s">
@@ -10406,15 +10975,15 @@
       <c r="C76" t="s">
         <v>158</v>
       </c>
-      <c r="D76" s="11" t="s">
+      <c r="D76" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="E76" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="8" t="s">
         <v>216</v>
       </c>
       <c r="B77" t="s">
@@ -10423,15 +10992,15 @@
       <c r="C77" t="s">
         <v>158</v>
       </c>
-      <c r="D77" s="10" t="s">
+      <c r="D77" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="E77" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="8" t="s">
         <v>218</v>
       </c>
       <c r="B78" t="s">
@@ -10440,15 +11009,15 @@
       <c r="C78" t="s">
         <v>158</v>
       </c>
-      <c r="D78" s="10" t="s">
+      <c r="D78" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="E78" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="8" t="s">
         <v>220</v>
       </c>
       <c r="B79" t="s">
@@ -10457,15 +11026,15 @@
       <c r="C79" t="s">
         <v>158</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="D79" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="E79" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="8" t="s">
         <v>222</v>
       </c>
       <c r="B80" t="s">
@@ -10474,15 +11043,15 @@
       <c r="C80" t="s">
         <v>158</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="D80" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="E80" s="3" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="8" t="s">
         <v>225</v>
       </c>
       <c r="B81" t="s">
@@ -10491,15 +11060,15 @@
       <c r="C81" t="s">
         <v>158</v>
       </c>
-      <c r="D81" s="10" t="s">
+      <c r="D81" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="E81" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="8" t="s">
         <v>227</v>
       </c>
       <c r="B82" t="s">
@@ -10508,15 +11077,15 @@
       <c r="C82" t="s">
         <v>158</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D82" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="E82" s="3" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="8" t="s">
         <v>230</v>
       </c>
       <c r="B83" t="s">
@@ -10525,15 +11094,15 @@
       <c r="C83" t="s">
         <v>158</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D83" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="E83" s="3" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="8" t="s">
         <v>233</v>
       </c>
       <c r="B84" t="s">
@@ -10542,15 +11111,15 @@
       <c r="C84" t="s">
         <v>158</v>
       </c>
-      <c r="D84" s="11" t="s">
+      <c r="D84" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="E84" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="8" t="s">
         <v>235</v>
       </c>
       <c r="B85" t="s">
@@ -10559,15 +11128,15 @@
       <c r="C85" t="s">
         <v>158</v>
       </c>
-      <c r="D85" s="11" t="s">
+      <c r="D85" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E85" s="3" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="86" ht="25.5" spans="1:5">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="8" t="s">
         <v>238</v>
       </c>
       <c r="B86" t="s">
@@ -10576,15 +11145,15 @@
       <c r="C86" t="s">
         <v>239</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="D86" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="E86" s="12" t="s">
+      <c r="E86" s="10" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="8" t="s">
         <v>242</v>
       </c>
       <c r="B87" t="s">
@@ -10593,15 +11162,15 @@
       <c r="C87" t="s">
         <v>239</v>
       </c>
-      <c r="D87" s="10" t="s">
+      <c r="D87" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="E87" s="3" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="8" t="s">
         <v>245</v>
       </c>
       <c r="B88" t="s">
@@ -10610,15 +11179,15 @@
       <c r="C88" t="s">
         <v>239</v>
       </c>
-      <c r="D88" s="11" t="s">
+      <c r="D88" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="E88" s="3" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="8" t="s">
         <v>248</v>
       </c>
       <c r="B89" t="s">
@@ -10627,15 +11196,15 @@
       <c r="C89" t="s">
         <v>239</v>
       </c>
-      <c r="D89" s="11" t="s">
+      <c r="D89" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="E89" s="3" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="8" t="s">
         <v>251</v>
       </c>
       <c r="B90" t="s">
@@ -10644,15 +11213,15 @@
       <c r="C90" t="s">
         <v>239</v>
       </c>
-      <c r="D90" s="11" t="s">
+      <c r="D90" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="E90" s="4" t="s">
+      <c r="E90" s="3" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="8" t="s">
         <v>254</v>
       </c>
       <c r="B91" t="s">
@@ -10661,15 +11230,15 @@
       <c r="C91" t="s">
         <v>239</v>
       </c>
-      <c r="D91" s="10" t="s">
+      <c r="D91" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="E91" s="3" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="9" t="s">
+      <c r="A92" s="8" t="s">
         <v>257</v>
       </c>
       <c r="B92" t="s">
@@ -10678,15 +11247,15 @@
       <c r="C92" t="s">
         <v>239</v>
       </c>
-      <c r="D92" s="11" t="s">
+      <c r="D92" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="E92" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="8" t="s">
         <v>259</v>
       </c>
       <c r="B93" t="s">
@@ -10695,15 +11264,15 @@
       <c r="C93" t="s">
         <v>239</v>
       </c>
-      <c r="D93" s="10" t="s">
+      <c r="D93" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="E93" s="4" t="s">
+      <c r="E93" s="3" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="8" t="s">
         <v>262</v>
       </c>
       <c r="B94" t="s">
@@ -10712,15 +11281,15 @@
       <c r="C94" t="s">
         <v>239</v>
       </c>
-      <c r="D94" s="11" t="s">
+      <c r="D94" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="E94" s="3" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="9" t="s">
+      <c r="A95" s="8" t="s">
         <v>265</v>
       </c>
       <c r="B95" t="s">
@@ -10729,15 +11298,15 @@
       <c r="C95" t="s">
         <v>239</v>
       </c>
-      <c r="D95" s="11" t="s">
+      <c r="D95" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="E95" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="9" t="s">
+      <c r="A96" s="8" t="s">
         <v>267</v>
       </c>
       <c r="B96" t="s">
@@ -10746,15 +11315,15 @@
       <c r="C96" t="s">
         <v>239</v>
       </c>
-      <c r="D96" s="11" t="s">
+      <c r="D96" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="E96" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="97" ht="39" spans="1:5">
-      <c r="A97" s="13" t="s">
+      <c r="A97" s="11" t="s">
         <v>269</v>
       </c>
       <c r="B97" t="s">
@@ -10763,15 +11332,15 @@
       <c r="C97" t="s">
         <v>239</v>
       </c>
-      <c r="D97" s="14" t="s">
+      <c r="D97" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="E97" s="12" t="s">
+      <c r="E97" s="10" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="98" ht="25.5" spans="1:5">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="8" t="s">
         <v>272</v>
       </c>
       <c r="B98" t="s">
@@ -10780,15 +11349,15 @@
       <c r="C98" t="s">
         <v>239</v>
       </c>
-      <c r="D98" s="11" t="s">
+      <c r="D98" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="E98" s="12" t="s">
+      <c r="E98" s="10" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="8" t="s">
         <v>275</v>
       </c>
       <c r="B99" t="s">
@@ -10797,15 +11366,15 @@
       <c r="C99" t="s">
         <v>239</v>
       </c>
-      <c r="D99" s="11" t="s">
+      <c r="D99" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="E99" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="8" t="s">
         <v>277</v>
       </c>
       <c r="B100" t="s">
@@ -10814,15 +11383,15 @@
       <c r="C100" t="s">
         <v>239</v>
       </c>
-      <c r="D100" s="10" t="s">
+      <c r="D100" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="E100" s="3" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="101" ht="27" spans="1:5">
-      <c r="A101" s="9" t="s">
+      <c r="A101" s="8" t="s">
         <v>280</v>
       </c>
       <c r="B101" t="s">
@@ -10831,15 +11400,15 @@
       <c r="C101" t="s">
         <v>239</v>
       </c>
-      <c r="D101" s="15" t="s">
+      <c r="D101" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="E101" s="3" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="9" t="s">
+      <c r="A102" s="8" t="s">
         <v>283</v>
       </c>
       <c r="B102" t="s">
@@ -10848,15 +11417,15 @@
       <c r="C102" t="s">
         <v>239</v>
       </c>
-      <c r="D102" s="10" t="s">
+      <c r="D102" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="E102" s="4" t="s">
+      <c r="E102" s="3" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="9" t="s">
+      <c r="A103" s="8" t="s">
         <v>286</v>
       </c>
       <c r="B103" t="s">
@@ -10865,15 +11434,15 @@
       <c r="C103" t="s">
         <v>239</v>
       </c>
-      <c r="D103" s="10" t="s">
+      <c r="D103" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="E103" s="4" t="s">
+      <c r="E103" s="3" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="9" t="s">
+      <c r="A104" s="8" t="s">
         <v>289</v>
       </c>
       <c r="B104" t="s">
@@ -10882,15 +11451,15 @@
       <c r="C104" t="s">
         <v>239</v>
       </c>
-      <c r="D104" s="16" t="s">
+      <c r="D104" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="E104" s="4" t="s">
+      <c r="E104" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="8" t="s">
         <v>291</v>
       </c>
       <c r="B105" t="s">
@@ -10899,15 +11468,15 @@
       <c r="C105" t="s">
         <v>239</v>
       </c>
-      <c r="D105" s="10" t="s">
+      <c r="D105" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="E105" s="4" t="s">
+      <c r="E105" s="3" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="9" t="s">
+      <c r="A106" s="8" t="s">
         <v>294</v>
       </c>
       <c r="B106" t="s">
@@ -10916,15 +11485,15 @@
       <c r="C106" t="s">
         <v>239</v>
       </c>
-      <c r="D106" s="11" t="s">
+      <c r="D106" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="E106" s="4" t="s">
+      <c r="E106" s="3" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="9" t="s">
+      <c r="A107" s="8" t="s">
         <v>297</v>
       </c>
       <c r="B107" t="s">
@@ -10933,15 +11502,15 @@
       <c r="C107" t="s">
         <v>239</v>
       </c>
-      <c r="D107" s="10" t="s">
+      <c r="D107" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="E107" s="4" t="s">
+      <c r="E107" s="3" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="9" t="s">
+      <c r="A108" s="8" t="s">
         <v>300</v>
       </c>
       <c r="B108" t="s">
@@ -10950,15 +11519,15 @@
       <c r="C108" t="s">
         <v>239</v>
       </c>
-      <c r="D108" s="11" t="s">
+      <c r="D108" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="E108" s="4" t="s">
+      <c r="E108" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="9" t="s">
+      <c r="A109" s="8" t="s">
         <v>302</v>
       </c>
       <c r="B109" t="s">
@@ -10967,15 +11536,15 @@
       <c r="C109" t="s">
         <v>239</v>
       </c>
-      <c r="D109" s="10" t="s">
+      <c r="D109" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="E109" s="4" t="s">
+      <c r="E109" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="9" t="s">
+      <c r="A110" s="8" t="s">
         <v>304</v>
       </c>
       <c r="B110" t="s">
@@ -10984,15 +11553,15 @@
       <c r="C110" t="s">
         <v>239</v>
       </c>
-      <c r="D110" s="11" t="s">
+      <c r="D110" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="E110" s="4" t="s">
+      <c r="E110" s="3" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="9" t="s">
+      <c r="A111" s="8" t="s">
         <v>307</v>
       </c>
       <c r="B111" t="s">
@@ -11001,15 +11570,15 @@
       <c r="C111" t="s">
         <v>239</v>
       </c>
-      <c r="D111" s="14" t="s">
+      <c r="D111" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="E111" s="4" t="s">
+      <c r="E111" s="3" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="9" t="s">
+      <c r="A112" s="8" t="s">
         <v>310</v>
       </c>
       <c r="B112" t="s">
@@ -11018,15 +11587,15 @@
       <c r="C112" t="s">
         <v>239</v>
       </c>
-      <c r="D112" s="11" t="s">
+      <c r="D112" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="E112" s="4" t="s">
+      <c r="E112" s="3" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="9" t="s">
+      <c r="A113" s="8" t="s">
         <v>312</v>
       </c>
       <c r="B113" t="s">
@@ -11035,15 +11604,15 @@
       <c r="C113" t="s">
         <v>313</v>
       </c>
-      <c r="D113" s="10" t="s">
+      <c r="D113" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="E113" s="4" t="s">
+      <c r="E113" s="3" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="9" t="s">
+      <c r="A114" s="8" t="s">
         <v>316</v>
       </c>
       <c r="B114" t="s">
@@ -11052,15 +11621,15 @@
       <c r="C114" t="s">
         <v>313</v>
       </c>
-      <c r="D114" s="10" t="s">
+      <c r="D114" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="E114" s="4" t="s">
+      <c r="E114" s="3" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="9" t="s">
+      <c r="A115" s="8" t="s">
         <v>319</v>
       </c>
       <c r="B115" t="s">
@@ -11069,15 +11638,15 @@
       <c r="C115" t="s">
         <v>313</v>
       </c>
-      <c r="D115" s="11" t="s">
+      <c r="D115" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="E115" s="4" t="s">
+      <c r="E115" s="3" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="9" t="s">
+      <c r="A116" s="8" t="s">
         <v>322</v>
       </c>
       <c r="B116" t="s">
@@ -11086,15 +11655,15 @@
       <c r="C116" t="s">
         <v>313</v>
       </c>
-      <c r="D116" s="10" t="s">
+      <c r="D116" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="E116" s="4" t="s">
+      <c r="E116" s="3" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="9" t="s">
+      <c r="A117" s="8" t="s">
         <v>325</v>
       </c>
       <c r="B117" t="s">
@@ -11103,15 +11672,15 @@
       <c r="C117" t="s">
         <v>313</v>
       </c>
-      <c r="D117" s="10" t="s">
+      <c r="D117" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="E117" s="4" t="s">
+      <c r="E117" s="3" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="9" t="s">
+      <c r="A118" s="8" t="s">
         <v>328</v>
       </c>
       <c r="B118" t="s">
@@ -11120,15 +11689,15 @@
       <c r="C118" t="s">
         <v>313</v>
       </c>
-      <c r="D118" s="11" t="s">
+      <c r="D118" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="E118" s="4" t="s">
+      <c r="E118" s="3" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="9" t="s">
+      <c r="A119" s="8" t="s">
         <v>331</v>
       </c>
       <c r="B119" t="s">
@@ -11137,15 +11706,15 @@
       <c r="C119" t="s">
         <v>313</v>
       </c>
-      <c r="D119" s="11" t="s">
+      <c r="D119" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="E119" s="4" t="s">
+      <c r="E119" s="3" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="120" ht="27" spans="1:5">
-      <c r="A120" s="9" t="s">
+      <c r="A120" s="8" t="s">
         <v>334</v>
       </c>
       <c r="B120" t="s">
@@ -11154,15 +11723,15 @@
       <c r="C120" t="s">
         <v>313</v>
       </c>
-      <c r="D120" s="10" t="s">
+      <c r="D120" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="E120" s="4" t="s">
+      <c r="E120" s="3" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="9" t="s">
+      <c r="A121" s="8" t="s">
         <v>337</v>
       </c>
       <c r="B121" t="s">
@@ -11171,15 +11740,15 @@
       <c r="C121" t="s">
         <v>313</v>
       </c>
-      <c r="D121" s="11" t="s">
+      <c r="D121" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="E121" s="4" t="s">
+      <c r="E121" s="3" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="122" ht="27" spans="1:5">
-      <c r="A122" s="9" t="s">
+      <c r="A122" s="8" t="s">
         <v>340</v>
       </c>
       <c r="B122" t="s">
@@ -11188,15 +11757,15 @@
       <c r="C122" t="s">
         <v>341</v>
       </c>
-      <c r="D122" s="10" t="s">
+      <c r="D122" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="E122" s="4" t="s">
+      <c r="E122" s="3" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="9" t="s">
+      <c r="A123" s="8" t="s">
         <v>344</v>
       </c>
       <c r="B123" t="s">
@@ -11205,15 +11774,15 @@
       <c r="C123" t="s">
         <v>341</v>
       </c>
-      <c r="D123" s="11" t="s">
+      <c r="D123" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="E123" s="4" t="s">
+      <c r="E123" s="3" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="9" t="s">
+      <c r="A124" s="8" t="s">
         <v>347</v>
       </c>
       <c r="B124" t="s">
@@ -11222,15 +11791,15 @@
       <c r="C124" t="s">
         <v>341</v>
       </c>
-      <c r="D124" s="10" t="s">
+      <c r="D124" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="E124" s="4" t="s">
+      <c r="E124" s="3" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="9" t="s">
+      <c r="A125" s="8" t="s">
         <v>350</v>
       </c>
       <c r="B125" t="s">
@@ -11239,15 +11808,15 @@
       <c r="C125" t="s">
         <v>341</v>
       </c>
-      <c r="D125" s="11" t="s">
+      <c r="D125" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="E125" s="4" t="s">
+      <c r="E125" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="9" t="s">
+      <c r="A126" s="8" t="s">
         <v>352</v>
       </c>
       <c r="B126" t="s">
@@ -11256,15 +11825,15 @@
       <c r="C126" t="s">
         <v>341</v>
       </c>
-      <c r="D126" s="10" t="s">
+      <c r="D126" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="E126" s="4" t="s">
+      <c r="E126" s="3" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="9" t="s">
+      <c r="A127" s="8" t="s">
         <v>355</v>
       </c>
       <c r="B127" t="s">
@@ -11273,15 +11842,15 @@
       <c r="C127" t="s">
         <v>341</v>
       </c>
-      <c r="D127" s="10" t="s">
+      <c r="D127" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="E127" s="4" t="s">
+      <c r="E127" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="9" t="s">
+      <c r="A128" s="8" t="s">
         <v>357</v>
       </c>
       <c r="B128" t="s">
@@ -11290,15 +11859,15 @@
       <c r="C128" t="s">
         <v>358</v>
       </c>
-      <c r="D128" s="11" t="s">
+      <c r="D128" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="E128" s="4" t="s">
+      <c r="E128" s="3" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="9" t="s">
+      <c r="A129" s="8" t="s">
         <v>361</v>
       </c>
       <c r="B129" t="s">
@@ -11307,15 +11876,15 @@
       <c r="C129" t="s">
         <v>358</v>
       </c>
-      <c r="D129" s="10" t="s">
+      <c r="D129" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="E129" s="4" t="s">
+      <c r="E129" s="3" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="130" ht="38.25" spans="1:5">
-      <c r="A130" s="9" t="s">
+      <c r="A130" s="8" t="s">
         <v>364</v>
       </c>
       <c r="B130" t="s">
@@ -11324,15 +11893,15 @@
       <c r="C130" t="s">
         <v>365</v>
       </c>
-      <c r="D130" s="10" t="s">
+      <c r="D130" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="E130" s="12" t="s">
+      <c r="E130" s="10" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="9" t="s">
+      <c r="A131" s="8" t="s">
         <v>368</v>
       </c>
       <c r="B131" t="s">
@@ -11341,15 +11910,15 @@
       <c r="C131" t="s">
         <v>365</v>
       </c>
-      <c r="D131" s="11" t="s">
+      <c r="D131" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="E131" s="4" t="s">
+      <c r="E131" s="3" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="9" t="s">
+      <c r="A132" s="8" t="s">
         <v>371</v>
       </c>
       <c r="B132" t="s">
@@ -11358,15 +11927,15 @@
       <c r="C132" t="s">
         <v>365</v>
       </c>
-      <c r="D132" s="10" t="s">
+      <c r="D132" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="E132" s="4" t="s">
+      <c r="E132" s="3" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="9" t="s">
+      <c r="A133" s="8" t="s">
         <v>374</v>
       </c>
       <c r="B133" t="s">
@@ -11375,15 +11944,15 @@
       <c r="C133" t="s">
         <v>365</v>
       </c>
-      <c r="D133" s="10" t="s">
+      <c r="D133" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="E133" s="4" t="s">
+      <c r="E133" s="3" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="9" t="s">
+      <c r="A134" s="8" t="s">
         <v>377</v>
       </c>
       <c r="B134" t="s">
@@ -11392,15 +11961,15 @@
       <c r="C134" t="s">
         <v>365</v>
       </c>
-      <c r="D134" s="10" t="s">
+      <c r="D134" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="E134" s="4" t="s">
+      <c r="E134" s="3" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="9" t="s">
+      <c r="A135" s="8" t="s">
         <v>380</v>
       </c>
       <c r="B135" t="s">
@@ -11409,15 +11978,15 @@
       <c r="C135" t="s">
         <v>365</v>
       </c>
-      <c r="D135" s="10" t="s">
+      <c r="D135" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="E135" s="4" t="s">
+      <c r="E135" s="3" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="136" ht="27" spans="1:5">
-      <c r="A136" s="9" t="s">
+      <c r="A136" s="8" t="s">
         <v>383</v>
       </c>
       <c r="B136" t="s">
@@ -11426,15 +11995,15 @@
       <c r="C136" t="s">
         <v>384</v>
       </c>
-      <c r="D136" s="10" t="s">
+      <c r="D136" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="E136" s="4" t="s">
+      <c r="E136" s="3" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="9" t="s">
+      <c r="A137" s="8" t="s">
         <v>387</v>
       </c>
       <c r="B137" t="s">
@@ -11443,15 +12012,15 @@
       <c r="C137" t="s">
         <v>384</v>
       </c>
-      <c r="D137" s="10" t="s">
+      <c r="D137" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="E137" s="4" t="s">
+      <c r="E137" s="3" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="9" t="s">
+      <c r="A138" s="8" t="s">
         <v>389</v>
       </c>
       <c r="B138" t="s">
@@ -11460,15 +12029,15 @@
       <c r="C138" t="s">
         <v>384</v>
       </c>
-      <c r="D138" s="10" t="s">
+      <c r="D138" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="E138" s="4" t="s">
+      <c r="E138" s="3" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="9" t="s">
+      <c r="A139" s="8" t="s">
         <v>392</v>
       </c>
       <c r="B139" t="s">
@@ -11477,15 +12046,15 @@
       <c r="C139" t="s">
         <v>384</v>
       </c>
-      <c r="D139" s="11" t="s">
+      <c r="D139" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="E139" s="4" t="s">
+      <c r="E139" s="3" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="9" t="s">
+      <c r="A140" s="8" t="s">
         <v>395</v>
       </c>
       <c r="B140" t="s">
@@ -11494,15 +12063,15 @@
       <c r="C140" t="s">
         <v>384</v>
       </c>
-      <c r="D140" s="10" t="s">
+      <c r="D140" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="E140" s="4" t="s">
+      <c r="E140" s="3" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="9" t="s">
+      <c r="A141" s="8" t="s">
         <v>398</v>
       </c>
       <c r="B141" t="s">
@@ -11511,15 +12080,15 @@
       <c r="C141" t="s">
         <v>384</v>
       </c>
-      <c r="D141" s="10" t="s">
+      <c r="D141" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="E141" s="4" t="s">
+      <c r="E141" s="3" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="9" t="s">
+      <c r="A142" s="8" t="s">
         <v>401</v>
       </c>
       <c r="B142" t="s">
@@ -11528,15 +12097,15 @@
       <c r="C142" t="s">
         <v>384</v>
       </c>
-      <c r="D142" s="11" t="s">
+      <c r="D142" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="E142" s="4" t="s">
+      <c r="E142" s="3" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="9" t="s">
+      <c r="A143" s="8" t="s">
         <v>404</v>
       </c>
       <c r="B143" t="s">
@@ -11545,15 +12114,15 @@
       <c r="C143" t="s">
         <v>384</v>
       </c>
-      <c r="D143" s="11" t="s">
+      <c r="D143" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="E143" s="4" t="s">
+      <c r="E143" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="9" t="s">
+      <c r="A144" s="8" t="s">
         <v>406</v>
       </c>
       <c r="B144" t="s">
@@ -11562,15 +12131,15 @@
       <c r="C144" t="s">
         <v>384</v>
       </c>
-      <c r="D144" s="11" t="s">
+      <c r="D144" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="E144" s="4" t="s">
+      <c r="E144" s="3" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="9" t="s">
+      <c r="A145" s="8" t="s">
         <v>409</v>
       </c>
       <c r="B145" t="s">
@@ -11579,15 +12148,15 @@
       <c r="C145" t="s">
         <v>384</v>
       </c>
-      <c r="D145" s="11" t="s">
+      <c r="D145" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="E145" s="4" t="s">
+      <c r="E145" s="3" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="9" t="s">
+      <c r="A146" s="8" t="s">
         <v>412</v>
       </c>
       <c r="B146" t="s">
@@ -11596,15 +12165,15 @@
       <c r="C146" t="s">
         <v>384</v>
       </c>
-      <c r="D146" s="10" t="s">
+      <c r="D146" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="E146" s="4" t="s">
+      <c r="E146" s="3" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="9" t="s">
+      <c r="A147" s="8" t="s">
         <v>415</v>
       </c>
       <c r="B147" t="s">
@@ -11613,15 +12182,15 @@
       <c r="C147" t="s">
         <v>384</v>
       </c>
-      <c r="D147" s="10" t="s">
+      <c r="D147" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="E147" s="4" t="s">
+      <c r="E147" s="3" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="9" t="s">
+      <c r="A148" s="8" t="s">
         <v>418</v>
       </c>
       <c r="B148" t="s">
@@ -11630,15 +12199,15 @@
       <c r="C148" t="s">
         <v>384</v>
       </c>
-      <c r="D148" s="11" t="s">
+      <c r="D148" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="E148" s="4" t="s">
+      <c r="E148" s="3" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="9" t="s">
+      <c r="A149" s="8" t="s">
         <v>421</v>
       </c>
       <c r="B149" t="s">
@@ -11647,15 +12216,15 @@
       <c r="C149" t="s">
         <v>384</v>
       </c>
-      <c r="D149" s="10" t="s">
+      <c r="D149" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="E149" s="4" t="s">
+      <c r="E149" s="3" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="9" t="s">
+      <c r="A150" s="8" t="s">
         <v>424</v>
       </c>
       <c r="B150" t="s">
@@ -11664,15 +12233,15 @@
       <c r="C150" t="s">
         <v>384</v>
       </c>
-      <c r="D150" s="10" t="s">
+      <c r="D150" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="E150" s="4" t="s">
+      <c r="E150" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="9" t="s">
+      <c r="A151" s="8" t="s">
         <v>426</v>
       </c>
       <c r="B151" t="s">
@@ -11681,15 +12250,15 @@
       <c r="C151" t="s">
         <v>427</v>
       </c>
-      <c r="D151" s="10" t="s">
+      <c r="D151" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="E151" s="4" t="s">
+      <c r="E151" s="3" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="9" t="s">
+      <c r="A152" s="8" t="s">
         <v>430</v>
       </c>
       <c r="B152" t="s">
@@ -11698,15 +12267,15 @@
       <c r="C152" t="s">
         <v>427</v>
       </c>
-      <c r="D152" s="11" t="s">
+      <c r="D152" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="E152" s="4" t="s">
+      <c r="E152" s="3" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="9" t="s">
+      <c r="A153" s="8" t="s">
         <v>433</v>
       </c>
       <c r="B153" t="s">
@@ -11715,15 +12284,15 @@
       <c r="C153" t="s">
         <v>427</v>
       </c>
-      <c r="D153" s="10" t="s">
+      <c r="D153" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="E153" s="4" t="s">
+      <c r="E153" s="3" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="9" t="s">
+      <c r="A154" s="8" t="s">
         <v>436</v>
       </c>
       <c r="B154" t="s">
@@ -11732,15 +12301,15 @@
       <c r="C154" t="s">
         <v>427</v>
       </c>
-      <c r="D154" s="11" t="s">
+      <c r="D154" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="E154" s="4" t="s">
+      <c r="E154" s="3" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="155" ht="26.25" spans="1:5">
-      <c r="A155" s="9" t="s">
+      <c r="A155" s="8" t="s">
         <v>439</v>
       </c>
       <c r="B155" t="s">
@@ -11749,15 +12318,15 @@
       <c r="C155" t="s">
         <v>427</v>
       </c>
-      <c r="D155" s="10" t="s">
+      <c r="D155" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="E155" s="4" t="s">
+      <c r="E155" s="3" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="9" t="s">
+      <c r="A156" s="8" t="s">
         <v>442</v>
       </c>
       <c r="B156" t="s">
@@ -11766,15 +12335,15 @@
       <c r="C156" t="s">
         <v>427</v>
       </c>
-      <c r="D156" s="16" t="s">
+      <c r="D156" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="E156" s="4" t="s">
+      <c r="E156" s="3" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="9" t="s">
+      <c r="A157" s="8" t="s">
         <v>445</v>
       </c>
       <c r="B157" t="s">
@@ -11783,15 +12352,15 @@
       <c r="C157" t="s">
         <v>427</v>
       </c>
-      <c r="D157" s="11" t="s">
+      <c r="D157" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="E157" s="4" t="s">
+      <c r="E157" s="3" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="9" t="s">
+      <c r="A158" s="8" t="s">
         <v>448</v>
       </c>
       <c r="B158" t="s">
@@ -11800,15 +12369,15 @@
       <c r="C158" t="s">
         <v>427</v>
       </c>
-      <c r="D158" s="10" t="s">
+      <c r="D158" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="E158" s="4" t="s">
+      <c r="E158" s="3" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="9" t="s">
+      <c r="A159" s="8" t="s">
         <v>451</v>
       </c>
       <c r="B159" t="s">
@@ -11817,15 +12386,15 @@
       <c r="C159" t="s">
         <v>427</v>
       </c>
-      <c r="D159" s="11" t="s">
+      <c r="D159" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="E159" s="4" t="s">
+      <c r="E159" s="3" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="9" t="s">
+      <c r="A160" s="8" t="s">
         <v>454</v>
       </c>
       <c r="B160" t="s">
@@ -11834,15 +12403,15 @@
       <c r="C160" t="s">
         <v>427</v>
       </c>
-      <c r="D160" s="10" t="s">
+      <c r="D160" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="E160" s="4" t="s">
+      <c r="E160" s="3" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="161" ht="27" spans="1:5">
-      <c r="A161" s="9" t="s">
+      <c r="A161" s="8" t="s">
         <v>457</v>
       </c>
       <c r="B161" t="s">
@@ -11851,15 +12420,15 @@
       <c r="C161" t="s">
         <v>458</v>
       </c>
-      <c r="D161" s="10" t="s">
+      <c r="D161" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="E161" s="4" t="s">
+      <c r="E161" s="3" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="9" t="s">
+      <c r="A162" s="8" t="s">
         <v>461</v>
       </c>
       <c r="B162" t="s">
@@ -11868,15 +12437,15 @@
       <c r="C162" t="s">
         <v>458</v>
       </c>
-      <c r="D162" s="9" t="s">
+      <c r="D162" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="E162" s="4" t="s">
+      <c r="E162" s="3" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="9" t="s">
+      <c r="A163" s="8" t="s">
         <v>464</v>
       </c>
       <c r="B163" t="s">
@@ -11885,15 +12454,15 @@
       <c r="C163" t="s">
         <v>458</v>
       </c>
-      <c r="D163" s="11" t="s">
+      <c r="D163" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="E163" s="4" t="s">
+      <c r="E163" s="3" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="9" t="s">
+      <c r="A164" s="8" t="s">
         <v>467</v>
       </c>
       <c r="B164" t="s">
@@ -11902,15 +12471,15 @@
       <c r="C164" t="s">
         <v>458</v>
       </c>
-      <c r="D164" s="10" t="s">
+      <c r="D164" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="E164" s="4" t="s">
+      <c r="E164" s="3" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="9" t="s">
+      <c r="A165" s="8" t="s">
         <v>470</v>
       </c>
       <c r="B165" t="s">
@@ -11919,15 +12488,15 @@
       <c r="C165" t="s">
         <v>458</v>
       </c>
-      <c r="D165" s="10" t="s">
+      <c r="D165" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="E165" s="4" t="s">
+      <c r="E165" s="3" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="9" t="s">
+      <c r="A166" s="8" t="s">
         <v>473</v>
       </c>
       <c r="B166" t="s">
@@ -11936,15 +12505,15 @@
       <c r="C166" t="s">
         <v>474</v>
       </c>
-      <c r="D166" s="11" t="s">
+      <c r="D166" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="E166" s="4" t="s">
+      <c r="E166" s="3" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="9" t="s">
+      <c r="A167" s="8" t="s">
         <v>477</v>
       </c>
       <c r="B167" t="s">
@@ -11953,171 +12522,59 @@
       <c r="C167" t="s">
         <v>474</v>
       </c>
-      <c r="D167" s="10" t="s">
+      <c r="D167" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="E167" s="4" t="s">
+      <c r="E167" s="3" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="9" t="s">
+      <c r="A168" s="8" t="s">
         <v>480</v>
       </c>
       <c r="B168" t="s">
         <v>6</v>
       </c>
-      <c r="D168" s="11" t="s">
+      <c r="C168" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="E168" s="4" t="s">
+      <c r="E168" s="3" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="9" t="s">
+      <c r="A169" s="8" t="s">
         <v>483</v>
       </c>
       <c r="B169" t="s">
         <v>6</v>
       </c>
-      <c r="C169" t="s">
-        <v>6</v>
-      </c>
-      <c r="D169" s="11" t="s">
+      <c r="D169" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="E169" s="4" t="s">
+      <c r="E169" s="3" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="9" t="s">
+      <c r="A170" s="8" t="s">
         <v>486</v>
       </c>
       <c r="B170" t="s">
         <v>6</v>
       </c>
-      <c r="D170" s="11" t="s">
+      <c r="C170" t="s">
+        <v>158</v>
+      </c>
+      <c r="D170" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="E170" s="4" t="s">
+      <c r="E170" s="3" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="A171" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="B171" t="s">
-        <v>6</v>
-      </c>
-      <c r="D171" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="E171" s="4" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
-      <c r="A172" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="B172" t="s">
-        <v>6</v>
-      </c>
-      <c r="D172" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="E172" s="4" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
-      <c r="A173" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="B173" t="s">
-        <v>6</v>
-      </c>
-      <c r="D173" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="E173" s="4" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
-      <c r="A174" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="B174" t="s">
-        <v>6</v>
-      </c>
-      <c r="D174" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="E174" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
-      <c r="A175" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="B175" t="s">
-        <v>6</v>
-      </c>
-      <c r="C175" t="s">
-        <v>6</v>
-      </c>
-      <c r="D175" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="E175" s="4" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
-      <c r="A176" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="B176" t="s">
-        <v>6</v>
-      </c>
-      <c r="D176" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="E176" s="4" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
-      <c r="A177" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="B177" t="s">
-        <v>6</v>
-      </c>
-      <c r="D177" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="E177" s="17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
-      <c r="A178" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="B178" t="s">
-        <v>6</v>
-      </c>
-      <c r="D178" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="E178" s="4" t="s">
-        <v>509</v>
       </c>
     </row>
   </sheetData>
